--- a/data/trans_bre/P23_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-0,13</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>23,64%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31,37%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-22,42%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 4,47</t>
+          <t>-3,34; 4,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 7,91</t>
+          <t>-1,61; 7,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 7,7</t>
+          <t>0,45; 7,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 3,94</t>
+          <t>-3,33; 5,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 43,96</t>
+          <t>-4,0; 3,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 71,9</t>
+          <t>-8,13; 0,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 68,39</t>
+          <t>-23,38; 46,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 28,41</t>
+          <t>-10,92; 64,48</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 71,59</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-22,15; 45,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-22,22; 25,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-39,66; 0,37</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,23%</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>-3,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,48%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 2,8</t>
+          <t>-6,54; 4,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 6,47</t>
+          <t>-3,18; 6,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,25</t>
+          <t>-4,18; 5,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 9,06</t>
+          <t>-3,04; 6,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 24,44</t>
+          <t>-4,93; 9,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 54,34</t>
+          <t>-8,41; 6,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 48,64</t>
+          <t>-38,7; 39,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 78,13</t>
+          <t>-19,08; 56,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-25,8; 54,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-22,1; 62,34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-28,79; 90,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-41,29; 44,37</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-9,94</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>33,83%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-30,83%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-31,28%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-64,38%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 11,01</t>
+          <t>-4,84; 11,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 8,31</t>
+          <t>-12,73; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 2,74</t>
+          <t>-19,21; 2,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-19,68; -1,71</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-38,18; 207,23</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 95,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,03; 27,48</t>
+          <t>-38,91; 215,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-56,73; 92,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-69,78; 30,45</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-86,84; -2,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,39</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,37%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,41</t>
+          <t>-2,35; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,54</t>
+          <t>-0,64; 5,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,72</t>
+          <t>-1,21; 4,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,11</t>
+          <t>-2,96; 2,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 22,02</t>
+          <t>-2,86; 3,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 46,69</t>
+          <t>-6,82; 0,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 39,28</t>
+          <t>-17,76; 31,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 30,8</t>
+          <t>-3,9; 45,49</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 37,78</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 25,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,06; 26,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-34,16; 0,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,64%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>31,37%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-22,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.465203921241257</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.464691464235437</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.662141665356053</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.7147622800560777</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1270378237749198</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-3.907527442503264</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.03780353143355315</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2612906132561231</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2640642143338722</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.05623365815782524</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.008174247424865526</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.2172347973552902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 4,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 7,18</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 7,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 5,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 3,58</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; 0,05</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-23,38; 46,43</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-10,92; 64,48</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 71,59</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-22,15; 45,52</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-22,22; 25,78</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-39,66; 0,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.906130623901512</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.9314948440287814</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5149962265026553</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.438870034196728</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-3.995473236491628</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-8.088479227252709</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2598077457727566</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.06756476907517157</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.03173552733273449</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2295406553159859</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.2221763635587078</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3934788070733015</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.64482606308227</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.46893038039516</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.520120321000368</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.984296487501714</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.580814876732311</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1870165112756112</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4548335819787512</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6767221101405996</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.6609266635151022</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.4611839385289053</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.2578202258816904</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.01472976219035602</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-3,49%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15,55%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9,15%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>16,57%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>14,68%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-5,48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,54; 4,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 6,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 5,87</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 6,1</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 9,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,41; 6,26</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-38,7; 39,73</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-19,08; 56,4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-25,8; 54,39</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-22,1; 62,34</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-28,79; 90,54</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 44,37</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.982916272483132</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.467724119309652</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9728993607916514</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.98971604495862</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.12726617361054</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-1.034975244764877</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1367087518391499</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1017128466527406</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.07322506101468841</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1749063772612475</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.1467966320424527</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.05956771215898374</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,56</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,94</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>39,24%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-31,28%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-64,38%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.093172107800083</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.088079893256241</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.45887164851565</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.836577731092518</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.933244495736389</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-8.536827336368642</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4426398069225433</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2228868507524343</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2718627767131825</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2107684931173413</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2878667520808527</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.4178489626664191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,84; 11,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,73; 8,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,21; 2,93</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; -1,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-38,91; 215,78</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-56,73; 92,5</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-69,78; 30,45</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-86,84; -2,03</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.832135518112457</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.04328776701641</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.526175030897807</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.289319451135826</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.874098536447045</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>6.077034167498018</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2550731830550541</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5076330673299927</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5093592677876738</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.663558362732116</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.9053712407204787</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.4413195178151531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,0</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18,02%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>13,88%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-0,01%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-18,7%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.447908506724408</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.599333982233164</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.471035613722</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-9.592184694627377</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.4100612018418998</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1180432681584437</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3100081376630574</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.6246596818754989</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 3,4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 5,36</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 4,61</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 2,84</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 3,62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; 0,09</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-17,76; 31,16</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 45,49</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 37,78</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-21,06; 25,9</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-17,06; 26,89</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-34,16; 0,57</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.169243877489345</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.982912543444572</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.60836308929173</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-19.67286792904444</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.39293704506785</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.487337709682398</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6874290018465432</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.862746193772064</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.21716803236904</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.129359277484367</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.049916754097388</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-1.045311972272028</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.23193072113708</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.019556200295663</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3028585568773549</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.05334990422359055</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.1513112496894981</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.468999557109244</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.574033244736223</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.04139363890447306</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3869639259950985</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-3.25645259352576</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01189441342009169</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1794071994552041</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1116216445499642</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.003314764616004029</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.02531128236669788</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.1825545154820003</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.285886300844819</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.8326855092148635</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.593370893190425</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.886559178511547</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-2.864072951835007</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-6.662289631001826</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2223843342351849</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0513606492928964</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.09667209953429287</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2146833911494013</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1705688789218482</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3375843708658638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.786348333422425</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.226687813688781</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.316877233312929</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.925130377275674</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.618912104244735</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.1968175419370093</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2408164782703822</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4462006690582131</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3477536626959544</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.266811948735196</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2689031374038679</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.01146013511967794</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
